--- a/Raw data/Metadata ARs_2022-08.xlsx
+++ b/Raw data/Metadata ARs_2022-08.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d03c6ea88daad3e/Documenten/Shimoni/DATA/R/Github/Surveys/SurveysAR/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EDD4ADC6-C022-4C6B-80C1-B18752AD357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD27EA10-DF27-4EC3-A7FF-BF9EFADD18F5}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{EDD4ADC6-C022-4C6B-80C1-B18752AD357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0930663-C5D9-4FC6-ABF2-9D0C6CA1E58D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C026306-E489-4040-A217-0B2D001C9A17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3C026306-E489-4040-A217-0B2D001C9A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Distances_NT" sheetId="2" r:id="rId2"/>
     <sheet name="Distances_F" sheetId="3" r:id="rId3"/>
+    <sheet name="Mean and SD" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mean and SD'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$O$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="82">
   <si>
     <t>Transect</t>
   </si>
@@ -288,6 +293,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,10 +321,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -325,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,6 +350,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,17 +673,16 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="K59" sqref="K59:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.21875" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -714,27 +736,25 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44621</v>
+        <v>44631</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>20.7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="H2" s="3">
-        <v>0.4145833333333333</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <f>J2-I2</f>
-        <v>6.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -742,129 +762,91 @@
         <v>44631</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>11.5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="H3" s="3">
-        <v>0.4909722222222222</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K63" si="0">J3-I3</f>
-        <v>6.1</v>
+        <f>J3-I3</f>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44621</v>
+        <v>44631</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>19.3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="H4" s="3">
-        <v>0.4777777777777778</v>
+        <v>0.37361111111111112</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>9.9</v>
-      </c>
-      <c r="N4">
-        <f>L4/M4</f>
-        <v>1.0101010101010102</v>
+        <f>J4-I4</f>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44621</v>
+        <v>44631</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>13.8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="H5" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="I5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="N5">
-        <f>L5/M5</f>
-        <v>1.0309278350515465</v>
+        <f>J5-I5</f>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44593</v>
+        <v>44631</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>6.2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="H6" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.39027777777777778</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="N6">
-        <f>L6/M6</f>
-        <v>1.0204081632653061</v>
+        <f>J6-I6</f>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -885,7 +867,7 @@
         <v>2.7</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f>J7-I7</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -907,7 +889,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f>J8-I8</f>
         <v>2</v>
       </c>
     </row>
@@ -929,7 +911,7 @@
         <v>4.3</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f>J9-I9</f>
         <v>2.9</v>
       </c>
       <c r="L9">
@@ -964,7 +946,7 @@
         <v>4.7</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f>J10-I10</f>
         <v>2.6</v>
       </c>
       <c r="L10">
@@ -999,7 +981,7 @@
         <v>4.5</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f>J11-I11</f>
         <v>2.6</v>
       </c>
       <c r="L11">
@@ -1015,1741 +997,1786 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>43862</v>
+        <v>43872</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>7.3</v>
+        <v>12.3</v>
       </c>
       <c r="E12">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="H12" s="3">
-        <v>0.45624999999999999</v>
+        <v>0.44861111111111113</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="J12">
-        <v>4.7</v>
+        <v>7.9</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="N12">
-        <f>L12/M12</f>
-        <v>1.075268817204301</v>
+        <f>J12-I12</f>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>43862</v>
+        <v>44623</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>23.4</v>
+        <v>7.3</v>
       </c>
       <c r="E13">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="F13">
-        <v>9.9</v>
+        <v>12.7</v>
       </c>
       <c r="H13" s="3">
-        <v>0.47083333333333338</v>
+        <v>0.45</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J13">
-        <v>6.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>7.8</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13" si="1">L13/M13</f>
-        <v>1.2820512820512822</v>
+        <f>J13-I13</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>43863</v>
+        <v>43865</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="E14">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="F14">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="H14" s="3">
-        <v>0.44027777777777777</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="I14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N14">
-        <f>L14/M14</f>
-        <v>1.0869565217391306</v>
+        <f>J14-I14</f>
+        <v>5.6</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>43863</v>
+        <v>43865</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>14.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>15.5</v>
+      </c>
+      <c r="F15">
+        <v>28.9</v>
       </c>
       <c r="H15" s="3">
-        <v>0.46875</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f>J15-I15</f>
         <v>5.7</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>9.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>7.5</v>
+        <v>23.1</v>
       </c>
       <c r="H16" s="3">
-        <v>0.44513888888888892</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="I16">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
-        <v>5.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <f>J16-I16</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>43862</v>
+        <v>44637</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>6.4</v>
+        <v>19.3</v>
       </c>
       <c r="E17">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>10.3</v>
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>17.600000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>0.47847222222222219</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="I17">
         <v>0.4</v>
       </c>
       <c r="J17">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>8.1</v>
-      </c>
-      <c r="N17">
-        <f>L17/M17</f>
-        <v>1.2345679012345681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <f>J17-I17</f>
+        <v>6.6999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>43862</v>
+        <v>44637</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>20.3</v>
+      </c>
+      <c r="E18">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F18">
+        <v>9.1</v>
+      </c>
+      <c r="G18">
+        <v>15.7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <f>J18-I18</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E19">
+        <v>6.5</v>
+      </c>
+      <c r="F19">
+        <v>14.4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="I19">
+        <v>0.9</v>
+      </c>
+      <c r="J19">
         <v>8</v>
       </c>
-      <c r="D18">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E18">
-        <v>8.1</v>
-      </c>
-      <c r="F18">
-        <v>9.9</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="I18">
-        <v>0.3</v>
-      </c>
-      <c r="J18">
-        <v>5.5</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <f>L18/M18</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>55</v>
-      </c>
-      <c r="D19">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E19">
-        <v>10.7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="I19">
-        <v>0.1</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
       <c r="K19">
-        <f t="shared" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>8.4</v>
-      </c>
-      <c r="N19">
-        <f>L19/M19</f>
-        <v>1.1904761904761905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <f>J19-I19</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>43864</v>
+        <v>43875</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>6.1</v>
+        <v>30.8</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>9.1</v>
+      </c>
+      <c r="F20">
+        <v>10.8</v>
       </c>
       <c r="H20" s="3">
-        <v>0.45416666666666666</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="I20">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J20">
         <v>5.8</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f>J20-I20</f>
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>9.9</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K21">
+        <f>J21-I21</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>12.2</v>
+      </c>
+      <c r="G22">
+        <v>15.7</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I22">
+        <v>1.2</v>
+      </c>
+      <c r="J22">
+        <v>9.4</v>
+      </c>
+      <c r="K22">
+        <f>J22-I22</f>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E23">
+        <v>9.5</v>
+      </c>
+      <c r="F23">
+        <v>10.7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+      <c r="J23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K23">
+        <f>J23-I23</f>
+        <v>7.9999999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>10.1</v>
+      </c>
+      <c r="E24">
+        <v>13.5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="I24">
+        <v>1.8</v>
+      </c>
+      <c r="J24">
+        <v>7.8</v>
+      </c>
+      <c r="K24">
+        <f>J24-I24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>20.2</v>
+      </c>
+      <c r="E25">
+        <v>9.1</v>
+      </c>
+      <c r="F25">
+        <v>12.2</v>
+      </c>
+      <c r="G25">
+        <v>16.7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="I25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>3.9</v>
-      </c>
-      <c r="E21">
+      <c r="K25">
+        <f>J25-I25</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>7.6</v>
+      </c>
+      <c r="E26">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F26">
+        <v>12.7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="I26">
+        <v>2.5</v>
+      </c>
+      <c r="J26">
         <v>7.5</v>
       </c>
-      <c r="H21" s="3">
-        <v>0.43888888888888888</v>
-      </c>
-      <c r="I21">
-        <v>0.5</v>
-      </c>
-      <c r="J21">
-        <v>6.3</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>11.7</v>
-      </c>
-      <c r="E22">
-        <v>10.3</v>
-      </c>
-      <c r="F22">
-        <v>11.4</v>
-      </c>
-      <c r="G22">
-        <v>12.7</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.44930555555555557</v>
-      </c>
-      <c r="I22">
-        <v>0.2</v>
-      </c>
-      <c r="J22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <f>L22/M22</f>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>11.4</v>
-      </c>
-      <c r="E23">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="I23">
-        <v>0.4</v>
-      </c>
-      <c r="J23">
-        <v>6.9</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <f>L23/M23</f>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E24">
-        <v>11.3</v>
-      </c>
-      <c r="F24">
-        <v>12.6</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I24">
-        <v>0.2</v>
-      </c>
-      <c r="J24">
-        <v>7.5</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>7.6</v>
-      </c>
-      <c r="N24">
-        <f>L24/M24</f>
-        <v>1.3157894736842106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E25">
+      <c r="K26">
+        <f>J26-I26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>15.5</v>
+      </c>
+      <c r="E27">
         <v>10.7</v>
       </c>
-      <c r="H25" s="3">
-        <v>0.49236111111111108</v>
-      </c>
-      <c r="I25">
-        <v>0.2</v>
-      </c>
-      <c r="J25">
-        <v>7.3</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>52</v>
-      </c>
-      <c r="D26">
-        <v>16.2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>50</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="I26">
-        <v>0.6</v>
-      </c>
-      <c r="J26">
-        <v>7.3</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4">
-        <v>28</v>
-      </c>
-      <c r="D27">
-        <v>18.5</v>
-      </c>
-      <c r="E27">
-        <v>7.7</v>
-      </c>
       <c r="F27">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="G27">
-        <v>15.6</v>
+        <v>13.5</v>
       </c>
       <c r="H27" s="3">
-        <v>0.44166666666666665</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="I27">
         <v>0.2</v>
       </c>
       <c r="J27">
+        <v>8.4</v>
+      </c>
+      <c r="K27">
+        <f>J27-I27</f>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>17.2</v>
+      </c>
+      <c r="E28">
+        <v>13.5</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="I28">
+        <v>0.4</v>
+      </c>
+      <c r="J28">
+        <v>4.7</v>
+      </c>
+      <c r="K28">
+        <f>J28-I28</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>16.7</v>
+      </c>
+      <c r="E29">
+        <v>6.5</v>
+      </c>
+      <c r="F29">
+        <v>9.1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="I29">
+        <v>0.9</v>
+      </c>
+      <c r="J29">
         <v>5.8</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>6.5</v>
-      </c>
-      <c r="N27">
-        <f>L27/M27</f>
-        <v>1.5384615384615385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>55</v>
-      </c>
-      <c r="D28">
-        <v>12.4</v>
-      </c>
-      <c r="E28">
-        <v>9.9</v>
-      </c>
-      <c r="F28">
-        <v>9.9</v>
-      </c>
-      <c r="G28">
-        <v>15.6</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="I28">
+      <c r="K29">
+        <f>J29-I29</f>
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>16.2</v>
+      </c>
+      <c r="E30">
+        <v>10.8</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>5.2</v>
+      </c>
+      <c r="K30">
+        <f>J30-I30</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>10.6</v>
+      </c>
+      <c r="E31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F31">
+        <v>13.5</v>
+      </c>
+      <c r="G31">
+        <v>19.7</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I31">
         <v>0.3</v>
       </c>
-      <c r="J28">
-        <v>6.2</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>6.4</v>
-      </c>
-      <c r="E29">
-        <v>11.3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="I29">
-        <v>0.1</v>
-      </c>
-      <c r="J29">
-        <v>5.7</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>13.9</v>
-      </c>
-      <c r="E30">
-        <v>15</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="I30">
-        <v>0.1</v>
-      </c>
-      <c r="J30">
-        <v>6.4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <f>L30/M30</f>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="4">
-        <v>35</v>
-      </c>
-      <c r="D31">
-        <v>14.5</v>
-      </c>
-      <c r="E31">
-        <v>22.7</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I31">
-        <v>0.1</v>
-      </c>
       <c r="J31">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31">
+        <f>J31-I31</f>
         <v>6.8</v>
       </c>
-      <c r="N31">
-        <f>L31/M31</f>
-        <v>1.4705882352941178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43865</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
       <c r="D32">
-        <v>8.1</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>11.3</v>
+      </c>
+      <c r="E32">
+        <v>8.5</v>
+      </c>
+      <c r="F32">
+        <v>15.5</v>
+      </c>
       <c r="H32" s="3">
-        <v>0.44097222222222227</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="I32">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>9.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
-        <v>8.2999999999999989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J32-I32</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43865</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
       <c r="D33">
-        <v>12.2</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E33">
+        <v>23.1</v>
+      </c>
+      <c r="F33">
+        <v>28.9</v>
+      </c>
       <c r="H33" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="I33">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J33">
-        <v>10.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
-        <v>9.2999999999999989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J33-I33</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44631</v>
+        <v>43865</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="4">
-        <v>12.7</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34">
+        <v>8.1</v>
       </c>
       <c r="E34" s="4"/>
       <c r="H34" s="3">
-        <v>0.3743055555555555</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J34">
-        <v>9.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J34-I34</f>
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44631</v>
+        <v>43865</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="4">
-        <v>8.6999999999999993</v>
+        <v>35</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35">
+        <v>12.2</v>
       </c>
       <c r="E35" s="4"/>
       <c r="H35" s="3">
-        <v>0.38541666666666669</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J35">
-        <v>6.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J35-I35</f>
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44631</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="4">
-        <v>21.3</v>
+        <v>12.7</v>
       </c>
       <c r="E36" s="4"/>
       <c r="H36" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.3743055555555555</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J36-I36</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44631</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="H37" s="3">
-        <v>0.3354166666666667</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J37-I37</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44631</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D38" s="4">
+        <v>21.3</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="H38" s="3">
-        <v>0.35000000000000003</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J38-I38</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44631</v>
+        <v>43862</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>7.3</v>
+      </c>
+      <c r="E39">
+        <v>11.4</v>
+      </c>
       <c r="H39" s="3">
-        <v>0.37361111111111112</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J39">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J39-I39</f>
+        <v>4.5</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N39">
+        <f>L39/M39</f>
+        <v>1.075268817204301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44631</v>
+        <v>43862</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>23.4</v>
+      </c>
+      <c r="E40">
+        <v>8.1</v>
+      </c>
+      <c r="F40">
+        <v>9.9</v>
+      </c>
       <c r="H40" s="3">
-        <v>0.38611111111111113</v>
+        <v>0.47083333333333338</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J40">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J40-I40</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>7.8</v>
+      </c>
+      <c r="N40">
+        <f>L40/M40</f>
+        <v>1.2820512820512822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44631</v>
+        <v>43863</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F41">
+        <v>12.6</v>
+      </c>
       <c r="H41" s="3">
-        <v>0.39027777777777778</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J41">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J41-I41</f>
+        <v>6.5</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N41">
+        <f>L41/M41</f>
+        <v>1.0869565217391306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>43872</v>
+        <v>43863</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="E42">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="H42" s="3">
-        <v>0.44861111111111113</v>
+        <v>0.46875</v>
       </c>
       <c r="I42">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="J42">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J42-I42</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44623</v>
+        <v>43864</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>9.5</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>7.5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="I43">
+        <v>0.4</v>
+      </c>
+      <c r="J43">
+        <v>5.8</v>
+      </c>
+      <c r="K43">
+        <f>J43-I43</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>6.4</v>
+      </c>
+      <c r="E44">
+        <v>7.7</v>
+      </c>
+      <c r="F44">
+        <v>10.3</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I44">
+        <v>0.4</v>
+      </c>
+      <c r="J44">
+        <v>4.8</v>
+      </c>
+      <c r="K44">
+        <f>J44-I44</f>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>8.1</v>
+      </c>
+      <c r="N44">
+        <f>L44/M44</f>
+        <v>1.2345679012345681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="D43">
-        <v>7.3</v>
-      </c>
-      <c r="E43">
-        <v>9.5</v>
-      </c>
-      <c r="F43">
-        <v>12.7</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I43">
-        <v>0.1</v>
-      </c>
-      <c r="J43">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>17.5</v>
-      </c>
-      <c r="E44">
-        <v>8.5</v>
-      </c>
-      <c r="F44">
-        <v>11.5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.47152777777777777</v>
-      </c>
-      <c r="I44">
-        <v>0.5</v>
-      </c>
-      <c r="J44">
-        <v>6.1</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
       <c r="C45">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E45">
-        <v>15.5</v>
+        <v>8.1</v>
       </c>
       <c r="F45">
-        <v>28.9</v>
+        <v>9.9</v>
       </c>
       <c r="H45" s="3">
-        <v>0.4604166666666667</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="I45">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J45">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J45-I45</f>
+        <v>5.2</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <f>L45/M45</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>43865</v>
+        <v>43863</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>8.1999999999999993</v>
       </c>
       <c r="E46">
-        <v>23.1</v>
+        <v>10.7</v>
       </c>
       <c r="H46" s="3">
-        <v>0.45208333333333334</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I46">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="J46">
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J46-I46</f>
+        <v>5.9</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>8.4</v>
+      </c>
+      <c r="N46">
+        <f>L46/M46</f>
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>43875</v>
+        <v>43864</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D47">
-        <v>16.100000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="E47">
-        <v>6.5</v>
-      </c>
-      <c r="F47">
-        <v>14.4</v>
+        <v>7</v>
       </c>
       <c r="H47" s="3">
-        <v>0.4291666666666667</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="I47">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J47-I47</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>43875</v>
+        <v>43864</v>
       </c>
       <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>3.9</v>
+      </c>
+      <c r="E48">
+        <v>7.5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I48">
+        <v>0.5</v>
+      </c>
+      <c r="J48">
+        <v>6.3</v>
+      </c>
+      <c r="K48">
+        <f>J48-I48</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="4">
         <v>50</v>
       </c>
-      <c r="C48">
-        <v>32</v>
-      </c>
-      <c r="D48">
-        <v>30.8</v>
-      </c>
-      <c r="E48">
-        <v>9.1</v>
-      </c>
-      <c r="F48">
-        <v>10.8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.44375000000000003</v>
-      </c>
-      <c r="I48">
-        <v>0.9</v>
-      </c>
-      <c r="J48">
-        <v>5.8</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>48</v>
-      </c>
       <c r="D49">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="G49">
-        <v>17.600000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="H49" s="3">
-        <v>0.45902777777777781</v>
+        <v>0.44930555555555557</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J49">
         <v>5.0999999999999996</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J49-I49</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <f>L49/M49</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>43875</v>
+        <v>43862</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C50" s="4">
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>32.299999999999997</v>
+        <v>11.4</v>
       </c>
       <c r="E50">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>12.2</v>
-      </c>
-      <c r="G50">
-        <v>15.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H50" s="3">
-        <v>0.47847222222222219</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="I50">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J50">
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000011</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>44623</v>
+        <f>J50-I50</f>
+        <v>6.5</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <f>L50/M50</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43863</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>18.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E51">
-        <v>9.5</v>
+        <v>11.3</v>
       </c>
       <c r="F51">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="H51" s="3">
-        <v>0.43333333333333335</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I51">
         <v>0.2</v>
       </c>
       <c r="J51">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999991</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J51-I51</f>
+        <v>7.3</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>7.6</v>
+      </c>
+      <c r="N51">
+        <f>L51/M51</f>
+        <v>1.3157894736842106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>43872</v>
+        <v>43863</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>10.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E52">
-        <v>13.5</v>
+        <v>10.7</v>
       </c>
       <c r="H52" s="3">
-        <v>0.42986111111111108</v>
+        <v>0.49236111111111108</v>
       </c>
       <c r="I52">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="J52">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J52-I52</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>43875</v>
+        <v>43864</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D53">
-        <v>20.2</v>
-      </c>
-      <c r="E53">
-        <v>9.1</v>
-      </c>
-      <c r="F53">
-        <v>12.2</v>
-      </c>
-      <c r="G53">
-        <v>16.7</v>
+        <v>16.2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>50</v>
       </c>
       <c r="H53" s="3">
-        <v>0.46666666666666662</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="I53">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J53">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <f>J53-I53</f>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44629</v>
+        <v>43862</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C54" s="4">
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="E54">
-        <v>8.6999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="F54">
         <v>12.7</v>
       </c>
+      <c r="G54">
+        <v>15.6</v>
+      </c>
       <c r="H54" s="3">
-        <v>0.37083333333333335</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="I54">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="J54">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f>J54-I54</f>
+        <v>5.6</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>6.5</v>
+      </c>
+      <c r="N54">
+        <f>L54/M54</f>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>12.4</v>
+      </c>
+      <c r="E55">
+        <v>9.9</v>
+      </c>
+      <c r="F55">
+        <v>9.9</v>
+      </c>
+      <c r="G55">
+        <v>15.6</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="I55">
+        <v>0.3</v>
+      </c>
+      <c r="J55">
+        <v>6.2</v>
+      </c>
+      <c r="K55">
+        <f>J55-I55</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="4">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>6.4</v>
+      </c>
+      <c r="E56">
+        <v>11.3</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I56">
+        <v>0.1</v>
+      </c>
+      <c r="J56">
+        <v>5.7</v>
+      </c>
+      <c r="K56">
+        <f>J56-I56</f>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="4">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>13.9</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="I57">
+        <v>0.1</v>
+      </c>
+      <c r="J57">
+        <v>6.4</v>
+      </c>
+      <c r="K57">
+        <f>J57-I57</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <f>L57/M57</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="4">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>14.5</v>
+      </c>
+      <c r="E58">
+        <v>22.7</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I58">
+        <v>0.1</v>
+      </c>
+      <c r="J58">
+        <v>6.9</v>
+      </c>
+      <c r="K58">
+        <f>J58-I58</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>6.8</v>
+      </c>
+      <c r="N58">
+        <f>L58/M58</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>20.7</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="H59" s="3">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="I59">
+        <v>0.4</v>
+      </c>
+      <c r="J59">
+        <v>6.5</v>
+      </c>
+      <c r="K59">
+        <f>J59-I59</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55">
-        <v>18</v>
-      </c>
-      <c r="D55">
-        <v>15.5</v>
-      </c>
-      <c r="E55">
-        <v>10.7</v>
-      </c>
-      <c r="F55">
-        <v>12.8</v>
-      </c>
-      <c r="G55">
-        <v>13.5</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.49583333333333335</v>
-      </c>
-      <c r="I55">
+      <c r="D60" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="H60" s="3">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I60">
+        <v>1.9</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <f>J60-I60</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>19.3</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="H61" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="I61">
+        <v>0.9</v>
+      </c>
+      <c r="J61">
+        <v>6.4</v>
+      </c>
+      <c r="K61">
+        <f>J61-I61</f>
+        <v>5.5</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61">
+        <v>9.9</v>
+      </c>
+      <c r="N61">
+        <f>L61/M61</f>
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>13.8</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="H62" s="3">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="I62">
+        <v>1.9</v>
+      </c>
+      <c r="J62">
+        <v>7.6</v>
+      </c>
+      <c r="K62">
+        <f>J62-I62</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N62">
+        <f>L62/M62</f>
+        <v>1.0309278350515465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>6.2</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="H63" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I63">
         <v>0.2</v>
       </c>
-      <c r="J55">
-        <v>8.4</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>17.2</v>
-      </c>
-      <c r="E56">
-        <v>13.5</v>
-      </c>
-      <c r="F56">
-        <v>33</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="I56">
-        <v>0.4</v>
-      </c>
-      <c r="J56">
-        <v>4.7</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="0"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
-        <v>87</v>
-      </c>
-      <c r="D57">
-        <v>16.7</v>
-      </c>
-      <c r="E57">
-        <v>6.5</v>
-      </c>
-      <c r="F57">
-        <v>9.1</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="I57">
-        <v>0.9</v>
-      </c>
-      <c r="J57">
-        <v>5.8</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>18</v>
-      </c>
-      <c r="D58">
-        <v>16.2</v>
-      </c>
-      <c r="E58">
-        <v>10.8</v>
-      </c>
-      <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>5.2</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>25</v>
-      </c>
-      <c r="D59">
-        <v>10.6</v>
-      </c>
-      <c r="E59">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F59">
-        <v>13.5</v>
-      </c>
-      <c r="G59">
-        <v>19.7</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="I59">
-        <v>0.3</v>
-      </c>
-      <c r="J59">
-        <v>7.1</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60">
+      <c r="J63">
+        <v>5.9</v>
+      </c>
+      <c r="K63">
+        <f>J63-I63</f>
+        <v>5.7</v>
+      </c>
+      <c r="L63">
         <v>10</v>
       </c>
-      <c r="D60">
-        <v>11.3</v>
-      </c>
-      <c r="E60">
-        <v>8.5</v>
-      </c>
-      <c r="F60">
-        <v>15.5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="I60">
-        <v>0.5</v>
-      </c>
-      <c r="J60">
-        <v>7</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <v>28</v>
-      </c>
-      <c r="D61">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E61">
-        <v>23.1</v>
-      </c>
-      <c r="F61">
-        <v>28.9</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="I61">
-        <v>0.7</v>
-      </c>
-      <c r="J61">
-        <v>4.3</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>44637</v>
-      </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>40</v>
-      </c>
-      <c r="D62">
-        <v>19.3</v>
-      </c>
-      <c r="E62">
-        <v>8</v>
-      </c>
-      <c r="F62">
-        <v>11</v>
-      </c>
-      <c r="G62">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="I62">
-        <v>0.4</v>
-      </c>
-      <c r="J62">
-        <v>7.1</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="0"/>
-        <v>6.6999999999999993</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>44637</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>35</v>
-      </c>
-      <c r="D63">
-        <v>20.3</v>
-      </c>
-      <c r="E63">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F63">
-        <v>9.1</v>
-      </c>
-      <c r="G63">
-        <v>15.7</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0.45694444444444443</v>
-      </c>
-      <c r="I63">
-        <v>0.5</v>
-      </c>
-      <c r="J63">
-        <v>6</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+      <c r="M63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N63">
+        <f>L63/M63</f>
+        <v>1.0204081632653061</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{A8AC7D13-A81B-4407-B580-FB1C91BADCEF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O63">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3586,4 +3613,832 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348D45DB-7D0A-4501-97C0-E8C39617E646}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>12.3</v>
+      </c>
+      <c r="G2">
+        <v>13.5</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>8.1</v>
+      </c>
+      <c r="L2">
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>7.3</v>
+      </c>
+      <c r="G3">
+        <v>9.5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>12.2</v>
+      </c>
+      <c r="L3">
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>17.5</v>
+      </c>
+      <c r="G4">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="L4">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G5">
+        <v>15.5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L5">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6">
+        <v>23.1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="L6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G7">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>20.7</v>
+      </c>
+      <c r="L7">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>9.1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="L8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>9.9</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>19.3</v>
+      </c>
+      <c r="L9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>13.8</v>
+      </c>
+      <c r="L10">
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G11">
+        <v>9.5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>6.2</v>
+      </c>
+      <c r="L11">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="9">
+        <f>AVERAGE(D2:D11)</f>
+        <v>2.38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>10.1</v>
+      </c>
+      <c r="G12">
+        <v>13.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10">
+        <f>AVERAGE(J2:J11)</f>
+        <v>13.45</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10">
+        <f>AVERAGE(L2:L11)</f>
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="9">
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>0.71925887782726161</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>20.2</v>
+      </c>
+      <c r="G13">
+        <v>9.1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J13" s="10">
+        <f>_xlfn.STDEV.S(J2:J11)</f>
+        <v>5.356252836120083</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>1.5108864212037161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>7.6</v>
+      </c>
+      <c r="G14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>15.5</v>
+      </c>
+      <c r="G15">
+        <v>10.7</v>
+      </c>
+      <c r="H15" s="8">
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>17.2</v>
+      </c>
+      <c r="G16">
+        <v>13.5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>16.7</v>
+      </c>
+      <c r="G17">
+        <v>6.5</v>
+      </c>
+      <c r="H17" s="8">
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>16.2</v>
+      </c>
+      <c r="G18">
+        <v>10.8</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>10.6</v>
+      </c>
+      <c r="G19">
+        <v>13.5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>11.3</v>
+      </c>
+      <c r="G20">
+        <v>8.5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G21">
+        <v>23.1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>7.3</v>
+      </c>
+      <c r="G22">
+        <v>11.4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>23.4</v>
+      </c>
+      <c r="G23">
+        <v>8.1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H24" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>14.4</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>9.5</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" s="8">
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>6.4</v>
+      </c>
+      <c r="G27">
+        <v>7.7</v>
+      </c>
+      <c r="H27" s="8">
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G28">
+        <v>8.1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G29">
+        <v>10.7</v>
+      </c>
+      <c r="H29" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>6.1</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>3.9</v>
+      </c>
+      <c r="G31">
+        <v>7.5</v>
+      </c>
+      <c r="H31" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>11.7</v>
+      </c>
+      <c r="G32">
+        <v>10.3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>11.4</v>
+      </c>
+      <c r="G33">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H33" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G34">
+        <v>11.3</v>
+      </c>
+      <c r="H34" s="8">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G35">
+        <v>10.7</v>
+      </c>
+      <c r="H35" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>16.2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>30</v>
+      </c>
+      <c r="H36" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>18.5</v>
+      </c>
+      <c r="G37">
+        <v>7.7</v>
+      </c>
+      <c r="H37" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>12.4</v>
+      </c>
+      <c r="G38">
+        <v>9.9</v>
+      </c>
+      <c r="H38" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39">
+        <v>6.4</v>
+      </c>
+      <c r="G39">
+        <v>11.3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40">
+        <v>13.9</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40" s="8">
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41">
+        <v>14.5</v>
+      </c>
+      <c r="G41">
+        <v>22.7</v>
+      </c>
+      <c r="H41" s="8">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="12">
+        <f>AVERAGE(F2:F41)</f>
+        <v>13.139999999999997</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" ref="G42:H42" si="0">AVERAGE(G2:G41)</f>
+        <v>11.552499999999998</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="0"/>
+        <v>5.7475000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="12">
+        <f>_xlfn.STDEV.S(F2:F41)</f>
+        <v>6.0100684752274729</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" ref="G43:H43" si="1">_xlfn.STDEV.S(G2:G41)</f>
+        <v>5.1284519331635767</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1899121924079159</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{348D45DB-7D0A-4501-97C0-E8C39617E646}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>